--- a/bak_formato_alumnos_excel.xlsx
+++ b/bak_formato_alumnos_excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\Tesis\public\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <t>carnet</t>
   </si>
   <si>
+    <t>cedula</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
     <t>sexo</t>
   </si>
   <si>
-    <t>cedula</t>
-  </si>
-  <si>
     <t>fecha_nacimiento</t>
   </si>
   <si>
@@ -56,50 +56,53 @@
     <t>direccion</t>
   </si>
   <si>
-    <t>2009-30761</t>
-  </si>
-  <si>
-    <t>161-090392-0001Q</t>
-  </si>
-  <si>
-    <t>miguel angel</t>
-  </si>
-  <si>
-    <t>castillo cornejo</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>mikedosce1992@gmail.com</t>
+    <t>2009-30763</t>
+  </si>
+  <si>
+    <t>161-090392-0001F</t>
+  </si>
+  <si>
+    <t>Adilia del Carmen</t>
+  </si>
+  <si>
+    <t>hernandez godoy</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>ant mol 2000 75 vrs al Oeste</t>
   </si>
   <si>
-    <t>2099-30789</t>
-  </si>
-  <si>
-    <t>001-030292-0062E</t>
-  </si>
-  <si>
-    <t>rene mauricio</t>
-  </si>
-  <si>
-    <t>cruz hernandez</t>
-  </si>
-  <si>
-    <t>reneblackr@gmail.com</t>
+    <t>2099-30790</t>
+  </si>
+  <si>
+    <t>001-030292-0062D</t>
+  </si>
+  <si>
+    <t>Ericka solange</t>
+  </si>
+  <si>
+    <t>villareina juarez</t>
   </si>
   <si>
     <t>del tamarindo 2 c al guindo</t>
+  </si>
+  <si>
+    <t>adiHer@gmail.com</t>
+  </si>
+  <si>
+    <t>Ericka@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-m\-yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +114,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,18 +140,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -443,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,18 +457,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -512,7 +504,7 @@
         <v>33672</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>27322264</v>
@@ -521,21 +513,21 @@
         <v>84944968</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -544,7 +536,7 @@
         <v>33637</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>27136727</v>
@@ -553,212 +545,8 @@
         <v>89469271</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -766,6 +554,5 @@
     <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/bak_formato_alumnos_excel.xlsx
+++ b/bak_formato_alumnos_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>carnet</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Ericka@gmail.com</t>
+  </si>
+  <si>
+    <t>carrera_id</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +486,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -515,8 +521,11 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -546,6 +555,9 @@
       </c>
       <c r="J3" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bak_formato_alumnos_excel.xlsx
+++ b/bak_formato_alumnos_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>carnet</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>carrera_id</t>
+  </si>
+  <si>
+    <t>2011-40503</t>
+  </si>
+  <si>
+    <t>Jorshua Alberto</t>
+  </si>
+  <si>
+    <t>Arauz Cantarero</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>jorshua@gmail.com</t>
+  </si>
+  <si>
+    <t>El boris vega</t>
   </si>
 </sst>
 </file>
@@ -438,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -560,10 +578,43 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>33637</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>27145426</v>
+      </c>
+      <c r="I4">
+        <v>812345678</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
